--- a/docs/project.xlsx
+++ b/docs/project.xlsx
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>01/28/2024</t>
+          <t>01/29/2024</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N93" t="n">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N96" t="n">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N98" t="n">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N101" t="n">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -12256,7 +12256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12317,15 +12317,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>АОСР № 12</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY15 - SY16/ SX6 - SX6-1 в количестве 9 шт.</t>
-        </is>
+      <c r="A4" t="n">
+        <v/>
+      </c>
+      <c r="B4" t="n">
+        <v/>
       </c>
       <c r="C4" t="n">
         <v/>
@@ -12338,10 +12334,8 @@
       <c r="A5" t="n">
         <v/>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY15-SY16. №РС-027</t>
-        </is>
+      <c r="B5" t="n">
+        <v/>
       </c>
       <c r="C5" t="n">
         <v/>
@@ -12365,15 +12359,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>АОСР № 13</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях  SX6 - SX6-1/SY12 - SY13 в количестве 9 шт.</t>
-        </is>
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="n">
+        <v/>
       </c>
       <c r="C7" t="n">
         <v/>
@@ -12386,10 +12376,8 @@
       <c r="A8" t="n">
         <v/>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY12-SY13. №РС-037</t>
-        </is>
+      <c r="B8" t="n">
+        <v/>
       </c>
       <c r="C8" t="n">
         <v/>
@@ -12413,15 +12401,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>АОСР № 14</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SX6 - SX 6-1/ SY13 - SY14 в количестве 9 шт.</t>
-        </is>
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
       </c>
       <c r="C10" t="n">
         <v/>
@@ -12434,10 +12418,8 @@
       <c r="A11" t="n">
         <v/>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY1-SY14. №РС-035</t>
-        </is>
+      <c r="B11" t="n">
+        <v/>
       </c>
       <c r="C11" t="n">
         <v/>
@@ -12461,15 +12443,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>АОСР № 15</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY17-SY16/SX7-SX8 в количестве 21 шт.</t>
-        </is>
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
       </c>
       <c r="C13" t="n">
         <v/>
@@ -12482,10 +12460,8 @@
       <c r="A14" t="n">
         <v/>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX7-SX8. №РС-015</t>
-        </is>
+      <c r="B14" t="n">
+        <v/>
       </c>
       <c r="C14" t="n">
         <v/>
@@ -12509,15 +12485,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>АОСР № 16</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY17-SY16/SX13-SX14 в количестве 23 шт.</t>
-        </is>
+      <c r="A16" t="n">
+        <v/>
+      </c>
+      <c r="B16" t="n">
+        <v/>
       </c>
       <c r="C16" t="n">
         <v/>
@@ -12530,10 +12502,8 @@
       <c r="A17" t="n">
         <v/>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX13-SX14. №РС-021</t>
-        </is>
+      <c r="B17" t="n">
+        <v/>
       </c>
       <c r="C17" t="n">
         <v/>
@@ -12543,11 +12513,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v/>
-      </c>
-      <c r="B18" t="n">
-        <v/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>АОСР № 12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Цех окраски кузовов. Срубка свай в осях SY15 - SY16/ SX6 - SX6-1 в количестве 9 шт.</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v/>
@@ -12557,14 +12531,12 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>АОСР № 17</t>
-        </is>
+      <c r="A19" t="n">
+        <v/>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY16-SY17/SX14-SX16 в количестве 33 шт.</t>
+          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY15-SY16. №РС-027</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -12578,10 +12550,8 @@
       <c r="A20" t="n">
         <v/>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX14-SX15. №РС-022</t>
-        </is>
+      <c r="B20" t="n">
+        <v/>
       </c>
       <c r="C20" t="n">
         <v/>
@@ -12591,12 +12561,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>АОСР № 13</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Исполнительная схема по срубке свай в осях SY16-SX12-SX14. №РС-022/1</t>
+          <t>Цех окраски кузовов. Срубка свай в осях  SX6 - SX6-1/SY12 - SY13 в количестве 9 шт.</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -12610,8 +12582,10 @@
       <c r="A22" t="n">
         <v/>
       </c>
-      <c r="B22" t="n">
-        <v/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY12-SY13. №РС-037</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v/>
@@ -12621,15 +12595,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>АОСР № 18</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY16-SY17/SX15-SX16 в количестве 21 шт.</t>
-        </is>
+      <c r="A23" t="n">
+        <v/>
+      </c>
+      <c r="B23" t="n">
+        <v/>
       </c>
       <c r="C23" t="n">
         <v/>
@@ -12639,12 +12609,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>АОСР № 14</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX15-SX16. №РС-023</t>
+          <t>Цех окраски кузовов. Срубка свай в осях SX6 - SX 6-1/ SY13 - SY14 в количестве 9 шт.</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -12658,8 +12630,10 @@
       <c r="A25" t="n">
         <v/>
       </c>
-      <c r="B25" t="n">
-        <v/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY1-SY14. №РС-035</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v/>
@@ -12669,15 +12643,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>АОСР № 19</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY14 - SY15/SX6 - SX7 в количестве 29 шт.</t>
-        </is>
+      <c r="A26" t="n">
+        <v/>
+      </c>
+      <c r="B26" t="n">
+        <v/>
       </c>
       <c r="C26" t="n">
         <v/>
@@ -12687,12 +12657,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>АОСР № 15</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY14-SY15. №РС-029</t>
+          <t>Цех окраски кузовов. Срубка свай в осях SY17-SY16/SX7-SX8 в количестве 21 шт.</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -12706,8 +12678,10 @@
       <c r="A28" t="n">
         <v/>
       </c>
-      <c r="B28" t="n">
-        <v/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX7-SX8. №РС-015</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v/>
@@ -12717,5588 +12691,16 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>АОСР № 20</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях  SY12-SY13/SX2-SX3-1 в количестве 22 шт.</t>
-        </is>
+      <c r="A29" t="n">
+        <v/>
+      </c>
+      <c r="B29" t="n">
+        <v/>
       </c>
       <c r="C29" t="n">
         <v/>
       </c>
       <c r="D29" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v/>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY12-SY13-SX2-SX3-1. №РС-010</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v/>
-      </c>
-      <c r="D30" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v/>
-      </c>
-      <c r="B31" t="n">
-        <v/>
-      </c>
-      <c r="C31" t="n">
-        <v/>
-      </c>
-      <c r="D31" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>АОСР № 21</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях  SY12 -SY13/SX4 - SX5-1 в количестве 22 шт.</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v/>
-      </c>
-      <c r="D32" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v/>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY12-SX13-SX4-SX5-1. №РС-011</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v/>
-      </c>
-      <c r="D33" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v/>
-      </c>
-      <c r="B34" t="n">
-        <v/>
-      </c>
-      <c r="C34" t="n">
-        <v/>
-      </c>
-      <c r="D34" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>АОСР № 22</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях SY17/SX2-SX3 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v/>
-      </c>
-      <c r="D35" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v/>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SX2-SX3. №РС-002</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v/>
-      </c>
-      <c r="D36" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v/>
-      </c>
-      <c r="B37" t="n">
-        <v/>
-      </c>
-      <c r="C37" t="n">
-        <v/>
-      </c>
-      <c r="D37" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>АОСР № 23</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY17-SY16/SX10-SX11 в количестве 21 шт.</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v/>
-      </c>
-      <c r="D38" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v/>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX10-SX11. №РС-018</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v/>
-      </c>
-      <c r="D39" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v/>
-      </c>
-      <c r="B40" t="n">
-        <v/>
-      </c>
-      <c r="C40" t="n">
-        <v/>
-      </c>
-      <c r="D40" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>АОСР № 24</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях SY17/SX3-SX4 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v/>
-      </c>
-      <c r="D41" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v/>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SX3-SX4. №РС-003</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v/>
-      </c>
-      <c r="D42" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v/>
-      </c>
-      <c r="B43" t="n">
-        <v/>
-      </c>
-      <c r="C43" t="n">
-        <v/>
-      </c>
-      <c r="D43" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>АОСР № 25</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях SY17/SX4-SX5 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v/>
-      </c>
-      <c r="D44" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v/>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SX4-SX5. №РС-004</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v/>
-      </c>
-      <c r="D45" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v/>
-      </c>
-      <c r="B46" t="n">
-        <v/>
-      </c>
-      <c r="C46" t="n">
-        <v/>
-      </c>
-      <c r="D46" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>АОСР № 26</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях SY17/SX5-SX6 в количестве 6 шт.</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v/>
-      </c>
-      <c r="D47" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v/>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SX5-SX6. №РС-005</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v/>
-      </c>
-      <c r="D48" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v/>
-      </c>
-      <c r="B49" t="n">
-        <v/>
-      </c>
-      <c r="C49" t="n">
-        <v/>
-      </c>
-      <c r="D49" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>АОСР № 27</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях SX2/SY14-SY16 в количестве 36 шт.</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v/>
-      </c>
-      <c r="D50" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v/>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX2-SY14-SY16. №РС-012</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v/>
-      </c>
-      <c r="D51" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v/>
-      </c>
-      <c r="B52" t="n">
-        <v/>
-      </c>
-      <c r="C52" t="n">
-        <v/>
-      </c>
-      <c r="D52" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>АОСР № 28</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях  SY14 - SY15/SX13 - SX15 в количестве 48 шт.</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v/>
-      </c>
-      <c r="D53" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v/>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY14-SY15-SX13-SX15. №РС-032</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v/>
-      </c>
-      <c r="D54" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v/>
-      </c>
-      <c r="B55" t="n">
-        <v/>
-      </c>
-      <c r="C55" t="n">
-        <v/>
-      </c>
-      <c r="D55" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>АОСР № 29</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях SX3-SX5/SY14-SY16 в количестве 45 шт.</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v/>
-      </c>
-      <c r="D56" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v/>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX3-SX5-SY14-SY16. №РС-013</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v/>
-      </c>
-      <c r="D57" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v/>
-      </c>
-      <c r="B58" t="n">
-        <v/>
-      </c>
-      <c r="C58" t="n">
-        <v/>
-      </c>
-      <c r="D58" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>АОСР № 30</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях  SX1/SY14-SY13 в количестве 14 шт.</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v/>
-      </c>
-      <c r="D59" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v/>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX1-SY13-SY14. №РС-008</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v/>
-      </c>
-      <c r="D60" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v/>
-      </c>
-      <c r="B61" t="n">
-        <v/>
-      </c>
-      <c r="C61" t="n">
-        <v/>
-      </c>
-      <c r="D61" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>АОСР № 31</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях  SX1/SY13-SY12 в количестве 7 шт.</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v/>
-      </c>
-      <c r="D62" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v/>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX1-SY12-SY13. №РС-009</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v/>
-      </c>
-      <c r="D63" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v/>
-      </c>
-      <c r="B64" t="n">
-        <v/>
-      </c>
-      <c r="C64" t="n">
-        <v/>
-      </c>
-      <c r="D64" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>АОСР № 32</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Цех окраски пластика. Срубка свай в осях SY17/SX1-SX2, SX1/SY17-SY16 в количестве 24 шт. </t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v/>
-      </c>
-      <c r="D65" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v/>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SX1-SX2, SX1-SY17-SY16. №РС-001</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v/>
-      </c>
-      <c r="D66" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v/>
-      </c>
-      <c r="B67" t="n">
-        <v/>
-      </c>
-      <c r="C67" t="n">
-        <v/>
-      </c>
-      <c r="D67" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>АОСР № 33</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY17-SY16/SX11-SX12 в количестве 23 шт.</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v/>
-      </c>
-      <c r="D68" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v/>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX11-SX12. №РС-019</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v/>
-      </c>
-      <c r="D69" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v/>
-      </c>
-      <c r="B70" t="n">
-        <v/>
-      </c>
-      <c r="C70" t="n">
-        <v/>
-      </c>
-      <c r="D70" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>АОСР № 34</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY16- SY17/SX16 - SX17 в количестве 23 шт.</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v/>
-      </c>
-      <c r="D71" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v/>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX16-SX17. №РС-024</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v/>
-      </c>
-      <c r="D72" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v/>
-      </c>
-      <c r="B73" t="n">
-        <v/>
-      </c>
-      <c r="C73" t="n">
-        <v/>
-      </c>
-      <c r="D73" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>АОСР № 35</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX18/SY8-SY9 в количестве 17 шт.</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v/>
-      </c>
-      <c r="D74" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v/>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY8-SY9. №РС-047</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v/>
-      </c>
-      <c r="D75" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v/>
-      </c>
-      <c r="B76" t="n">
-        <v/>
-      </c>
-      <c r="C76" t="n">
-        <v/>
-      </c>
-      <c r="D76" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>АОСР № 36</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX18/SY6-SY7 в количестве 14 шт.</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v/>
-      </c>
-      <c r="D77" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v/>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY6-SY7. №РС-049</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v/>
-      </c>
-      <c r="D78" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v/>
-      </c>
-      <c r="B79" t="n">
-        <v/>
-      </c>
-      <c r="C79" t="n">
-        <v/>
-      </c>
-      <c r="D79" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>АОСР № 37</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY15/SX7-SX12. Объём разработанного  грунта 19,04м3.</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v/>
-      </c>
-      <c r="D80" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v/>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY15/SX7-SX12. №Е1-001</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v/>
-      </c>
-      <c r="D81" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v/>
-      </c>
-      <c r="B82" t="n">
-        <v/>
-      </c>
-      <c r="C82" t="n">
-        <v/>
-      </c>
-      <c r="D82" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>АОСР № 38</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY17/SX9-SX18. Объём разработанного грунта 1,18м3.</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v/>
-      </c>
-      <c r="D83" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v/>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY17/SX9-SX10, SY17/SX10-SX11, SY17/SX12-SX13. №Е1-002</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v/>
-      </c>
-      <c r="D84" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v/>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY17/SX13-1SX14, SY17/SX14-SX15, SY17/SX17-SX18. №Е1-003</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v/>
-      </c>
-      <c r="D85" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v/>
-      </c>
-      <c r="B86" t="n">
-        <v/>
-      </c>
-      <c r="C86" t="n">
-        <v/>
-      </c>
-      <c r="D86" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>АОСР № 39</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY17/SX11-SX18. Объём разработанного грунта 1,9м3.</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v/>
-      </c>
-      <c r="D87" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v/>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY17/SX15-SX16, SY17/SX17-SX18. №СА-001</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v/>
-      </c>
-      <c r="D88" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v/>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY17/SX11-SX17, SY17/SX18. №СА-002</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v/>
-      </c>
-      <c r="D89" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v/>
-      </c>
-      <c r="B90" t="n">
-        <v/>
-      </c>
-      <c r="C90" t="n">
-        <v/>
-      </c>
-      <c r="D90" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>АОСР № 40</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY14- SY17/SX18. Объём разработанного грунта 7,08м3.</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v/>
-      </c>
-      <c r="D91" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v/>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY17-SY14/SX18. №СА-003</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v/>
-      </c>
-      <c r="D92" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v/>
-      </c>
-      <c r="B93" t="n">
-        <v/>
-      </c>
-      <c r="C93" t="n">
-        <v/>
-      </c>
-      <c r="D93" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>АОСР № 41</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY16-SY17/SX6-SX12. Объём разработанного грунта 4,14м3.</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v/>
-      </c>
-      <c r="D94" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v/>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY17/SX6-SX8, SY17/SX9-SX12, SX8-SX10/SY17-SY16/ №СА-004</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v/>
-      </c>
-      <c r="D95" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v/>
-      </c>
-      <c r="B96" t="n">
-        <v/>
-      </c>
-      <c r="C96" t="n">
-        <v/>
-      </c>
-      <c r="D96" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>АОСР № 42</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY15-SY16/SX6-SX17. Объём разработанного  грунта 3,09м3.</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v/>
-      </c>
-      <c r="D97" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v/>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY16/SX6-SX8, SY16/SX12-SX17. №СА-005</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v/>
-      </c>
-      <c r="D98" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v/>
-      </c>
-      <c r="B99" t="n">
-        <v/>
-      </c>
-      <c r="C99" t="n">
-        <v/>
-      </c>
-      <c r="D99" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>АОСР № 43</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY14/SX7-SX17. Объём разработанного  грунта 8,88м3.</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v/>
-      </c>
-      <c r="D100" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v/>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY14/SX7, SY14/SX10, SY14/SX11-SX14, SY14/SX15-SX17. №СА-006</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v/>
-      </c>
-      <c r="D101" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v/>
-      </c>
-      <c r="B102" t="n">
-        <v/>
-      </c>
-      <c r="C102" t="n">
-        <v/>
-      </c>
-      <c r="D102" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>АОСР № 44</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY13/SX10-SX15. Объём разработанного  грунта 1,47м3.</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v/>
-      </c>
-      <c r="D103" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v/>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Исполнительная схема бетонной подготовки в осях SY13-SY14/SX6, SY14-SY15/SX6, SY15-SY16/SX6. №С-007</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v/>
-      </c>
-      <c r="D104" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v/>
-      </c>
-      <c r="B105" t="n">
-        <v/>
-      </c>
-      <c r="C105" t="n">
-        <v/>
-      </c>
-      <c r="D105" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>АОСР № 45</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY13-SY16/SX6. Объём разработанного  грунта 0,17м3.</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v/>
-      </c>
-      <c r="D106" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v/>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SX6/SY13-SY14, SX6/SY14-SY15, SX6/SY15-SY16. №СА-008</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v/>
-      </c>
-      <c r="D107" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v/>
-      </c>
-      <c r="B108" t="n">
-        <v/>
-      </c>
-      <c r="C108" t="n">
-        <v/>
-      </c>
-      <c r="D108" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>АОСР № 46</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY16-SY17/SX6-SX8. Объём разработанного  грунта 1,39м3.</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v/>
-      </c>
-      <c r="D109" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v/>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SX6/SY16-SY17. №СА-009</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v/>
-      </c>
-      <c r="D110" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v/>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY17/SX6-1SX7, SY17/SX7-SX8. №СА-011</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v/>
-      </c>
-      <c r="D111" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v/>
-      </c>
-      <c r="B112" t="n">
-        <v/>
-      </c>
-      <c r="C112" t="n">
-        <v/>
-      </c>
-      <c r="D112" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>АОСР № 47</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Ручная доработка грунта в осях SY17/SX1-SX6. Объём разработанного  грунта 1,39м3.</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v/>
-      </c>
-      <c r="D113" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v/>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки основания в осях SY17/SX1-SX5, SY17/SX5-SX6. №СА-014</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v/>
-      </c>
-      <c r="D114" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v/>
-      </c>
-      <c r="B115" t="n">
-        <v/>
-      </c>
-      <c r="C115" t="n">
-        <v/>
-      </c>
-      <c r="D115" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>АОСР № 48</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство щебеночного основания под монолитные фундаменты в осях SY15/SX7-SX12. Объём щебня - 6,46м3.</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v/>
-      </c>
-      <c r="D116" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v/>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки цебеночного основания в осях SY15/SX7-SX16. №С1-001</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v/>
-      </c>
-      <c r="D117" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v/>
-      </c>
-      <c r="B118" t="n">
-        <v/>
-      </c>
-      <c r="C118" t="n">
-        <v/>
-      </c>
-      <c r="D118" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v/>
-      </c>
-      <c r="B119" t="n">
-        <v/>
-      </c>
-      <c r="C119" t="n">
-        <v/>
-      </c>
-      <c r="D119" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v/>
-      </c>
-      <c r="B120" t="n">
-        <v/>
-      </c>
-      <c r="C120" t="n">
-        <v/>
-      </c>
-      <c r="D120" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v/>
-      </c>
-      <c r="B121" t="n">
-        <v/>
-      </c>
-      <c r="C121" t="n">
-        <v/>
-      </c>
-      <c r="D121" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v/>
-      </c>
-      <c r="B122" t="n">
-        <v/>
-      </c>
-      <c r="C122" t="n">
-        <v/>
-      </c>
-      <c r="D122" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>АОСР № 49</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство щебеночного основания под монолитные фундаменты в осях SY17/SX9-SX13. Объём щебня - 2,18м3.</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v/>
-      </c>
-      <c r="D123" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v/>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устройства щебёночной подготовки в осях SY17/SX9-SX10, SY17/SX10-SX11, SY17/SX12-SX13. №С1-002</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v/>
-      </c>
-      <c r="D124" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v/>
-      </c>
-      <c r="B125" t="n">
-        <v/>
-      </c>
-      <c r="C125" t="n">
-        <v/>
-      </c>
-      <c r="D125" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v/>
-      </c>
-      <c r="B126" t="n">
-        <v/>
-      </c>
-      <c r="C126" t="n">
-        <v/>
-      </c>
-      <c r="D126" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v/>
-      </c>
-      <c r="B127" t="n">
-        <v/>
-      </c>
-      <c r="C127" t="n">
-        <v/>
-      </c>
-      <c r="D127" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v/>
-      </c>
-      <c r="B128" t="n">
-        <v/>
-      </c>
-      <c r="C128" t="n">
-        <v/>
-      </c>
-      <c r="D128" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v/>
-      </c>
-      <c r="B129" t="n">
-        <v/>
-      </c>
-      <c r="C129" t="n">
-        <v/>
-      </c>
-      <c r="D129" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>АОСР № 50</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонного основания под монолитные фундаменты в осях SY17/SX9-SX13. Объём бетона - 2,18м3.</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v/>
-      </c>
-      <c r="D130" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v/>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки бетонного основания под Фм в осях SY17/SX13-1 -SX14, SY17/SX14-SX15, SY17/SX17-SX18. №С1-003</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v/>
-      </c>
-      <c r="D131" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v/>
-      </c>
-      <c r="B132" t="n">
-        <v/>
-      </c>
-      <c r="C132" t="n">
-        <v/>
-      </c>
-      <c r="D132" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v/>
-      </c>
-      <c r="B133" t="n">
-        <v/>
-      </c>
-      <c r="C133" t="n">
-        <v/>
-      </c>
-      <c r="D133" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>АОСР № 51</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонного основания под монолитные фундаменты в осях SY17/SX15-SX18. Объём бетона - 1,49м3.</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v/>
-      </c>
-      <c r="D134" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v/>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Исполнительная схема бетонной подготовки в осях SX15-SX16/SY17, SX17-SX18/SY17. №С-001</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v/>
-      </c>
-      <c r="D135" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v/>
-      </c>
-      <c r="B136" t="n">
-        <v/>
-      </c>
-      <c r="C136" t="n">
-        <v/>
-      </c>
-      <c r="D136" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v/>
-      </c>
-      <c r="B137" t="n">
-        <v/>
-      </c>
-      <c r="C137" t="n">
-        <v/>
-      </c>
-      <c r="D137" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>АОСР № 52</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонного основания под монолитные фундаменты в осях SY17/SX11-SX15, SY17/SX16-SX17. Объём бетона - 1,49м3.</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v/>
-      </c>
-      <c r="D138" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v/>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Исполнительная схема бетонной подготовки в осях SY17/SX11-SX15, SY17/SX16-SX18. №С-002</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v/>
-      </c>
-      <c r="D139" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v/>
-      </c>
-      <c r="B140" t="n">
-        <v/>
-      </c>
-      <c r="C140" t="n">
-        <v/>
-      </c>
-      <c r="D140" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v/>
-      </c>
-      <c r="B141" t="n">
-        <v/>
-      </c>
-      <c r="C141" t="n">
-        <v/>
-      </c>
-      <c r="D141" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>АОСР № 53</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонного основания под монолитные фундаменты в осях SY14-SY17/SX18. Объём бетона - 3,89м3.</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v/>
-      </c>
-      <c r="D142" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v/>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Исполнительная схема бетонной подготовки в осях SY17-SY14/SX18. №С-003</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v/>
-      </c>
-      <c r="D143" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v/>
-      </c>
-      <c r="B144" t="n">
-        <v/>
-      </c>
-      <c r="C144" t="n">
-        <v/>
-      </c>
-      <c r="D144" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v/>
-      </c>
-      <c r="B145" t="n">
-        <v/>
-      </c>
-      <c r="C145" t="n">
-        <v/>
-      </c>
-      <c r="D145" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>АОСР № 54</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонного основания под монолитные фундаменты в осях SY16-SY17/SX6-SX13. Объём бетона - 6,99м3.</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v/>
-      </c>
-      <c r="D146" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v/>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устройства бетонной подготовки в осях SY17/SX6-SX8, SY17/SX9-SX12, SX8-SX9/SY17-SY16. №С-004</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v/>
-      </c>
-      <c r="D147" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v/>
-      </c>
-      <c r="B148" t="n">
-        <v/>
-      </c>
-      <c r="C148" t="n">
-        <v/>
-      </c>
-      <c r="D148" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v/>
-      </c>
-      <c r="B149" t="n">
-        <v/>
-      </c>
-      <c r="C149" t="n">
-        <v/>
-      </c>
-      <c r="D149" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>АОСР № 55</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонного основания под монолитные фундаменты в осях SY16/SX6-1-SX13-1. Объём бетона - 5м3.</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v/>
-      </c>
-      <c r="D150" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v/>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устройства бетонной подготовки в осях SY16/SX6-1 - SX8, SY16/SX6, SY16/SX12-SX13-1, ST16/SX14-SX15, SY16/SX15-SX16, SY16/SX16-SX17. №С-005</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v/>
-      </c>
-      <c r="D151" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v/>
-      </c>
-      <c r="B152" t="n">
-        <v/>
-      </c>
-      <c r="C152" t="n">
-        <v/>
-      </c>
-      <c r="D152" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v/>
-      </c>
-      <c r="B153" t="n">
-        <v/>
-      </c>
-      <c r="C153" t="n">
-        <v/>
-      </c>
-      <c r="D153" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>АОСР № 56</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонного основания под монолитные фундаменты в осях SY14/SХ7-SX17. Объём бетона - 8,04м3.</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v/>
-      </c>
-      <c r="D154" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v/>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Исполнительная схема бетонной подготовки в осях SY14/SX7, SY14/SX10, SY14/SX11-SX14, SY14/SX15-SX17. №С-006</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v/>
-      </c>
-      <c r="D155" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v/>
-      </c>
-      <c r="B156" t="n">
-        <v/>
-      </c>
-      <c r="C156" t="n">
-        <v/>
-      </c>
-      <c r="D156" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v/>
-      </c>
-      <c r="B157" t="n">
-        <v/>
-      </c>
-      <c r="C157" t="n">
-        <v/>
-      </c>
-      <c r="D157" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>АОСР № 57</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонного основания под монолитные фундаменты в осях SY13-SY16/SХ6. Объём бетона - 2,47м3.</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v/>
-      </c>
-      <c r="D158" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v/>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Исполнительная схема бетонной подготовки в осях SY13-SY14/SX6, SY14-SY15/SX6, SY15-SY16/SX6. №С-007</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v/>
-      </c>
-      <c r="D159" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v/>
-      </c>
-      <c r="B160" t="n">
-        <v/>
-      </c>
-      <c r="C160" t="n">
-        <v/>
-      </c>
-      <c r="D160" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v/>
-      </c>
-      <c r="B161" t="n">
-        <v/>
-      </c>
-      <c r="C161" t="n">
-        <v/>
-      </c>
-      <c r="D161" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>АОСР № 58</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонной подготовки монолитных фундаментов в осях SY16-SY17/SX6</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v/>
-      </c>
-      <c r="D162" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v/>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Исполнительная схема бетонной подготовки в осях SY16-SY17/SX6. №С-008</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v/>
-      </c>
-      <c r="D163" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v/>
-      </c>
-      <c r="B164" t="n">
-        <v/>
-      </c>
-      <c r="C164" t="n">
-        <v/>
-      </c>
-      <c r="D164" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v/>
-      </c>
-      <c r="B165" t="n">
-        <v/>
-      </c>
-      <c r="C165" t="n">
-        <v/>
-      </c>
-      <c r="D165" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>АОСР № 59</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство бетонной подготовки монолитных фундаментов в осях SY13/SX12, SY13/SX13-1 - SX15</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v/>
-      </c>
-      <c r="D166" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v/>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Исполнительная схема бетонной подготовки в осях SY13/SX12, SY13/SX13-1 - SX15. №С-009</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v/>
-      </c>
-      <c r="D167" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v/>
-      </c>
-      <c r="B168" t="n">
-        <v/>
-      </c>
-      <c r="C168" t="n">
-        <v/>
-      </c>
-      <c r="D168" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v/>
-      </c>
-      <c r="B169" t="n">
-        <v/>
-      </c>
-      <c r="C169" t="n">
-        <v/>
-      </c>
-      <c r="D169" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>АОСР № 60</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Устройство щебеночного основания фундаментов в осях SY/SX1-SX5, SY17/SX5-SX6</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v/>
-      </c>
-      <c r="D170" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v/>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устройства щебеночной подготовки в осях SY/SX1-SX5, SY17/SX5-SX6. №С-011</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v/>
-      </c>
-      <c r="D171" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v/>
-      </c>
-      <c r="B172" t="n">
-        <v/>
-      </c>
-      <c r="C172" t="n">
-        <v/>
-      </c>
-      <c r="D172" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v/>
-      </c>
-      <c r="B173" t="n">
-        <v/>
-      </c>
-      <c r="C173" t="n">
-        <v/>
-      </c>
-      <c r="D173" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v/>
-      </c>
-      <c r="B174" t="n">
-        <v/>
-      </c>
-      <c r="C174" t="n">
-        <v/>
-      </c>
-      <c r="D174" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v/>
-      </c>
-      <c r="B175" t="n">
-        <v/>
-      </c>
-      <c r="C175" t="n">
-        <v/>
-      </c>
-      <c r="D175" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v/>
-      </c>
-      <c r="B176" t="n">
-        <v/>
-      </c>
-      <c r="C176" t="n">
-        <v/>
-      </c>
-      <c r="D176" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>АОСР № 61</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Устройство щебеночного основания фундаментов в осях SY/SX1-SX5, SY17/SX5-SX6</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v/>
-      </c>
-      <c r="D177" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v/>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Исполнительная схема подготовки щебеночного основания в осях SY17/SX1-SX5, SY17/SX5-SX6. №С-014</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v/>
-      </c>
-      <c r="D178" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v/>
-      </c>
-      <c r="B179" t="n">
-        <v/>
-      </c>
-      <c r="C179" t="n">
-        <v/>
-      </c>
-      <c r="D179" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v/>
-      </c>
-      <c r="B180" t="n">
-        <v/>
-      </c>
-      <c r="C180" t="n">
-        <v/>
-      </c>
-      <c r="D180" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v/>
-      </c>
-      <c r="B181" t="n">
-        <v/>
-      </c>
-      <c r="C181" t="n">
-        <v/>
-      </c>
-      <c r="D181" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v/>
-      </c>
-      <c r="B182" t="n">
-        <v/>
-      </c>
-      <c r="C182" t="n">
-        <v/>
-      </c>
-      <c r="D182" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v/>
-      </c>
-      <c r="B183" t="n">
-        <v/>
-      </c>
-      <c r="C183" t="n">
-        <v/>
-      </c>
-      <c r="D183" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>АОСР № 62</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Бетонирование 1-й ступени фундаментов Фм1-5шт, Фм2-11шт в осях SY17/SX9-SX13. Объём уложенного бетона - 30,78м3.</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v/>
-      </c>
-      <c r="D184" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v/>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устройства фундаментов первой ступени в осях SY17/SX9-SX13. №С4-001</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v/>
-      </c>
-      <c r="D185" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v/>
-      </c>
-      <c r="B186" t="n">
-        <v/>
-      </c>
-      <c r="C186" t="n">
-        <v/>
-      </c>
-      <c r="D186" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v/>
-      </c>
-      <c r="B187" t="n">
-        <v/>
-      </c>
-      <c r="C187" t="n">
-        <v/>
-      </c>
-      <c r="D187" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v/>
-      </c>
-      <c r="B188" t="n">
-        <v/>
-      </c>
-      <c r="C188" t="n">
-        <v/>
-      </c>
-      <c r="D188" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>АОСР № 63</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY16 - SY17/SX17 - SX18 в количестве 21 шт.</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v/>
-      </c>
-      <c r="D189" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v/>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX17-SX18. №РС-025</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v/>
-      </c>
-      <c r="D190" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v/>
-      </c>
-      <c r="B191" t="n">
-        <v/>
-      </c>
-      <c r="C191" t="n">
-        <v/>
-      </c>
-      <c r="D191" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>АОСР № 64</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов Срубка свай в осях SY16-SY17/SX12-SX14 в количестве 33 шт.</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v/>
-      </c>
-      <c r="D192" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v/>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX12-SX13. №РС-020</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v/>
-      </c>
-      <c r="D193" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v/>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY16-SX12-SX14. №РС-020/1</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v/>
-      </c>
-      <c r="D194" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v/>
-      </c>
-      <c r="B195" t="n">
-        <v/>
-      </c>
-      <c r="C195" t="n">
-        <v/>
-      </c>
-      <c r="D195" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>АОСР № 65</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY14 - SY15/SX15 - SX17 в количестве 39 шт.</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v/>
-      </c>
-      <c r="D196" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v/>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY14-SY15-SX15-SX17. №РС-033</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v/>
-      </c>
-      <c r="D197" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v/>
-      </c>
-      <c r="B198" t="n">
-        <v/>
-      </c>
-      <c r="C198" t="n">
-        <v/>
-      </c>
-      <c r="D198" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>АОСР № 66</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SX18/SY14 - SY15 в количестве 23 шт.</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v/>
-      </c>
-      <c r="D199" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v/>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY14-SY15. №РС-034</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v/>
-      </c>
-      <c r="D200" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v/>
-      </c>
-      <c r="B201" t="n">
-        <v/>
-      </c>
-      <c r="C201" t="n">
-        <v/>
-      </c>
-      <c r="D201" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>АОСР № 67</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX13-SX15/SY9-SY8 в количестве 30 шт.</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v/>
-      </c>
-      <c r="D202" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v/>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX13-SX15-SY9-SY8. №РС-052</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v/>
-      </c>
-      <c r="D203" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v/>
-      </c>
-      <c r="B204" t="n">
-        <v/>
-      </c>
-      <c r="C204" t="n">
-        <v/>
-      </c>
-      <c r="D204" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>АОСР № 68</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях  SY12 - SY13/SX9 - SX11 в количестве 25 шт.</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v/>
-      </c>
-      <c r="D205" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v/>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY12-SY13-SX9-SX11. №РС-039</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v/>
-      </c>
-      <c r="D206" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v/>
-      </c>
-      <c r="B207" t="n">
-        <v/>
-      </c>
-      <c r="C207" t="n">
-        <v/>
-      </c>
-      <c r="D207" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>АОСР № 69</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY12 - SY13/SX13 - SX13-1 в количестве 31 шт.</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v/>
-      </c>
-      <c r="D208" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v/>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY12-SY13-SX13-SX13-1. №РС-041</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v/>
-      </c>
-      <c r="D209" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v/>
-      </c>
-      <c r="B210" t="n">
-        <v/>
-      </c>
-      <c r="C210" t="n">
-        <v/>
-      </c>
-      <c r="D210" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>АОСР № 70</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX13-SX15/SY11-SY10 в количестве 30 шт.</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v/>
-      </c>
-      <c r="D211" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v/>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX13-SX15-SY11-SY10. №РС-051</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v/>
-      </c>
-      <c r="D212" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v/>
-      </c>
-      <c r="B213" t="n">
-        <v/>
-      </c>
-      <c r="C213" t="n">
-        <v/>
-      </c>
-      <c r="D213" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>АОСР № 71</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX13-SX15/SY6-SY7-1 в количестве 32 шт.</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v/>
-      </c>
-      <c r="D214" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v/>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX13-SX15-SY6-SY7-1. №РС-053</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v/>
-      </c>
-      <c r="D215" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v/>
-      </c>
-      <c r="B216" t="n">
-        <v/>
-      </c>
-      <c r="C216" t="n">
-        <v/>
-      </c>
-      <c r="D216" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>АОСР № 72</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях SX1/SY16-SY15 в количестве 17 шт.</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v/>
-      </c>
-      <c r="D217" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v/>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX1-SY15-SY16. №РС-006</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v/>
-      </c>
-      <c r="D218" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v/>
-      </c>
-      <c r="B219" t="n">
-        <v/>
-      </c>
-      <c r="C219" t="n">
-        <v/>
-      </c>
-      <c r="D219" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>АОСР № 73</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Срубка свай в осях SX1/SY15-SY14 в количестве 18 шт.</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v/>
-      </c>
-      <c r="D220" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v/>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX1-SY14-SY15. №РС-007</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v/>
-      </c>
-      <c r="D221" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v/>
-      </c>
-      <c r="B222" t="n">
-        <v/>
-      </c>
-      <c r="C222" t="n">
-        <v/>
-      </c>
-      <c r="D222" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>АОСР № 74</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY12 - SY13/SX11 - SX12 в количестве 33 шт.</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v/>
-      </c>
-      <c r="D223" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v/>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY12-SY13-SX11-SX12. №РС-040</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v/>
-      </c>
-      <c r="D224" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v/>
-      </c>
-      <c r="B225" t="n">
-        <v/>
-      </c>
-      <c r="C225" t="n">
-        <v/>
-      </c>
-      <c r="D225" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>АОСР № 75</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY12 - SY13/SX14 - SX15 в количестве 30 шт.</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v/>
-      </c>
-      <c r="D226" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v/>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY12-SY13-SX14-SX15. №РС-042</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v/>
-      </c>
-      <c r="D227" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v/>
-      </c>
-      <c r="B228" t="n">
-        <v/>
-      </c>
-      <c r="C228" t="n">
-        <v/>
-      </c>
-      <c r="D228" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>АОСР № 76</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX16/SY6-SY11 в количестве 30 шт.</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v/>
-      </c>
-      <c r="D229" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v/>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX16-SY11-SY6. №РС-054</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v/>
-      </c>
-      <c r="D230" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v/>
-      </c>
-      <c r="B231" t="n">
-        <v/>
-      </c>
-      <c r="C231" t="n">
-        <v/>
-      </c>
-      <c r="D231" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>АОСР № 77</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SY8- SY10/SX17-SX18 в количестве 17 шт.</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v/>
-      </c>
-      <c r="D232" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v/>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX17-SY8-SY10. №РС-056</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v/>
-      </c>
-      <c r="D233" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v/>
-      </c>
-      <c r="B234" t="n">
-        <v/>
-      </c>
-      <c r="C234" t="n">
-        <v/>
-      </c>
-      <c r="D234" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>АОСР № 78</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY16-SY17/SX9-SX11 в количестве 33 шт.</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v/>
-      </c>
-      <c r="D235" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v/>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX9-SX10. №РС-017</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v/>
-      </c>
-      <c r="D236" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v/>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY16-SX9-SX11. №РС-017/1</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v/>
-      </c>
-      <c r="D237" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v/>
-      </c>
-      <c r="B238" t="n">
-        <v/>
-      </c>
-      <c r="C238" t="n">
-        <v/>
-      </c>
-      <c r="D238" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>АОСР № 79</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SY8/SX17-SX18 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v/>
-      </c>
-      <c r="D239" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v/>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX17-SY8. №РС-057</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v/>
-      </c>
-      <c r="D240" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v/>
-      </c>
-      <c r="B241" t="n">
-        <v/>
-      </c>
-      <c r="C241" t="n">
-        <v/>
-      </c>
-      <c r="D241" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>АОСР № 80</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SY6 - SY7-1/SX17-SX18 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v/>
-      </c>
-      <c r="D242" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v/>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX17-SY7-SY7-1. №РС-058</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v/>
-      </c>
-      <c r="D243" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v/>
-      </c>
-      <c r="B244" t="n">
-        <v/>
-      </c>
-      <c r="C244" t="n">
-        <v/>
-      </c>
-      <c r="D244" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>АОСР № 81</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SY5/SX16-SX17 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v/>
-      </c>
-      <c r="D245" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v/>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY5-SX16-SX17. №РС-063</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v/>
-      </c>
-      <c r="D246" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v/>
-      </c>
-      <c r="B247" t="n">
-        <v/>
-      </c>
-      <c r="C247" t="n">
-        <v/>
-      </c>
-      <c r="D247" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>АОСР № 82</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях  SX18/SY7-SY8 в количестве 17 шт.</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v/>
-      </c>
-      <c r="D248" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v/>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY7-SY8. №РС-048</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v/>
-      </c>
-      <c r="D249" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v/>
-      </c>
-      <c r="B250" t="n">
-        <v/>
-      </c>
-      <c r="C250" t="n">
-        <v/>
-      </c>
-      <c r="D250" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>АОСР № 83</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SY5/SX14-SX15 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C251" t="n">
-        <v/>
-      </c>
-      <c r="D251" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v/>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY5-SX14-SX15. №РС-061</t>
-        </is>
-      </c>
-      <c r="C252" t="n">
-        <v/>
-      </c>
-      <c r="D252" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v/>
-      </c>
-      <c r="B253" t="n">
-        <v/>
-      </c>
-      <c r="C253" t="n">
-        <v/>
-      </c>
-      <c r="D253" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>АОСР № 84</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SY5/SX15-SX16 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v/>
-      </c>
-      <c r="D254" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v/>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY5-SX15-SX16. №РС-062</t>
-        </is>
-      </c>
-      <c r="C255" t="n">
-        <v/>
-      </c>
-      <c r="D255" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v/>
-      </c>
-      <c r="B256" t="n">
-        <v/>
-      </c>
-      <c r="C256" t="n">
-        <v/>
-      </c>
-      <c r="D256" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>АОСР № 85</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX13-SX13-1/SY4-SY5 в количестве 14 шт.</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
-        <v/>
-      </c>
-      <c r="D257" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v/>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX13-SX13-1-SY5-SY4. №РС-065</t>
-        </is>
-      </c>
-      <c r="C258" t="n">
-        <v/>
-      </c>
-      <c r="D258" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v/>
-      </c>
-      <c r="B259" t="n">
-        <v/>
-      </c>
-      <c r="C259" t="n">
-        <v/>
-      </c>
-      <c r="D259" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>АОСР № 86</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX13-SX13-1/SY3-SY4 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C260" t="n">
-        <v/>
-      </c>
-      <c r="D260" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v/>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX13-SX13-1SY4-SY3. №РС-066</t>
-        </is>
-      </c>
-      <c r="C261" t="n">
-        <v/>
-      </c>
-      <c r="D261" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v/>
-      </c>
-      <c r="B262" t="n">
-        <v/>
-      </c>
-      <c r="C262" t="n">
-        <v/>
-      </c>
-      <c r="D262" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>АОСР № 87</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX13-SX13-1/SY2-SY3 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C263" t="n">
-        <v/>
-      </c>
-      <c r="D263" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v/>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX13-SX13-1-SY3-SY2. №РС-067</t>
-        </is>
-      </c>
-      <c r="C264" t="n">
-        <v/>
-      </c>
-      <c r="D264" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v/>
-      </c>
-      <c r="B265" t="n">
-        <v/>
-      </c>
-      <c r="C265" t="n">
-        <v/>
-      </c>
-      <c r="D265" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>АОСР № 88</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SY5/SX13-SX14 в количестве 16 шт.</t>
-        </is>
-      </c>
-      <c r="C266" t="n">
-        <v/>
-      </c>
-      <c r="D266" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v/>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY5-SX13-SX14. №РС-060</t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v/>
-      </c>
-      <c r="D267" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v/>
-      </c>
-      <c r="B268" t="n">
-        <v/>
-      </c>
-      <c r="C268" t="n">
-        <v/>
-      </c>
-      <c r="D268" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>АОСР № 89</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY12 - SY13/SX6-2 - SX18 в количестве 20 шт.</t>
-        </is>
-      </c>
-      <c r="C269" t="n">
-        <v/>
-      </c>
-      <c r="D269" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v/>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY12-SY13-SX6-2-SX8. №РС-038</t>
-        </is>
-      </c>
-      <c r="C270" t="n">
-        <v/>
-      </c>
-      <c r="D270" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v/>
-      </c>
-      <c r="B271" t="n">
-        <v/>
-      </c>
-      <c r="C271" t="n">
-        <v/>
-      </c>
-      <c r="D271" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>АОСР № 90</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX18/SY12-SY11 в количестве 9 шт.</t>
-        </is>
-      </c>
-      <c r="C272" t="n">
-        <v/>
-      </c>
-      <c r="D272" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v/>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY12-SY11. №РС-044</t>
-        </is>
-      </c>
-      <c r="C273" t="n">
-        <v/>
-      </c>
-      <c r="D273" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v/>
-      </c>
-      <c r="B274" t="n">
-        <v/>
-      </c>
-      <c r="C274" t="n">
-        <v/>
-      </c>
-      <c r="D274" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>АОСР № 91</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX17 - SX18/SY10 - SY11 в количестве 14 шт.</t>
-        </is>
-      </c>
-      <c r="C275" t="n">
-        <v/>
-      </c>
-      <c r="D275" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v/>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX17-SY11-SY10. №РС-055</t>
-        </is>
-      </c>
-      <c r="C276" t="n">
-        <v/>
-      </c>
-      <c r="D276" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v/>
-      </c>
-      <c r="B277" t="n">
-        <v/>
-      </c>
-      <c r="C277" t="n">
-        <v/>
-      </c>
-      <c r="D277" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>АОСР № 92</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях  SY14 - SY15/SX8 - SX11 в количестве 38 шт.</t>
-        </is>
-      </c>
-      <c r="C278" t="n">
-        <v/>
-      </c>
-      <c r="D278" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v/>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY14-SY15-SX8-SX11. №РС-030</t>
-        </is>
-      </c>
-      <c r="C279" t="n">
-        <v/>
-      </c>
-      <c r="D279" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v/>
-      </c>
-      <c r="B280" t="n">
-        <v/>
-      </c>
-      <c r="C280" t="n">
-        <v/>
-      </c>
-      <c r="D280" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>АОСР № 93</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях  SY14 - SY15/SX11 - SX13 в количестве 45 шт.</t>
-        </is>
-      </c>
-      <c r="C281" t="n">
-        <v/>
-      </c>
-      <c r="D281" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v/>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY14-SY15-SX11-SX13. №РС-031</t>
-        </is>
-      </c>
-      <c r="C282" t="n">
-        <v/>
-      </c>
-      <c r="D282" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v/>
-      </c>
-      <c r="B283" t="n">
-        <v/>
-      </c>
-      <c r="C283" t="n">
-        <v/>
-      </c>
-      <c r="D283" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>АОСР № 94</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX18/SY10-SY11 в количестве 17 шт.</t>
-        </is>
-      </c>
-      <c r="C284" t="n">
-        <v/>
-      </c>
-      <c r="D284" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v/>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях sx18-SY10-SY11. №РС-045</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
-        <v/>
-      </c>
-      <c r="D285" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v/>
-      </c>
-      <c r="B286" t="n">
-        <v/>
-      </c>
-      <c r="C286" t="n">
-        <v/>
-      </c>
-      <c r="D286" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>АОСР № 95</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях  SY17 - SY16/SX18 в количестве 14 шт.</t>
-        </is>
-      </c>
-      <c r="C287" t="n">
-        <v/>
-      </c>
-      <c r="D287" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v/>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY17-SY16. №РС-026</t>
-        </is>
-      </c>
-      <c r="C288" t="n">
-        <v/>
-      </c>
-      <c r="D288" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v/>
-      </c>
-      <c r="B289" t="n">
-        <v/>
-      </c>
-      <c r="C289" t="n">
-        <v/>
-      </c>
-      <c r="D289" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>АОСР № 96</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Цех оераски кузовов. Срубка свай в осях SY17-SY16/SX8-SX9 в количестве 33 шт.</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v/>
-      </c>
-      <c r="D290" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v/>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX8-SX9. №РС-016</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v/>
-      </c>
-      <c r="D291" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v/>
-      </c>
-      <c r="B292" t="n">
-        <v/>
-      </c>
-      <c r="C292" t="n">
-        <v/>
-      </c>
-      <c r="D292" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>АОСР № 97</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SX18/SY15-SY16 в количестве 14 шт.</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v/>
-      </c>
-      <c r="D293" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v/>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY16-SY15. №РС-028</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v/>
-      </c>
-      <c r="D294" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v/>
-      </c>
-      <c r="B295" t="n">
-        <v/>
-      </c>
-      <c r="C295" t="n">
-        <v/>
-      </c>
-      <c r="D295" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>АОСР № 98</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SX18/SY13 - SY14 в количестве 14 шт.</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v/>
-      </c>
-      <c r="D296" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v/>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY13-SY14. №РС-036</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v/>
-      </c>
-      <c r="D297" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v/>
-      </c>
-      <c r="B298" t="n">
-        <v/>
-      </c>
-      <c r="C298" t="n">
-        <v/>
-      </c>
-      <c r="D298" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>АОСР № 99</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX18/SY5-SY6 в количестве 10 шт.</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v/>
-      </c>
-      <c r="D299" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v/>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY5-SY6. №РС-050</t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v/>
-      </c>
-      <c r="D300" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v/>
-      </c>
-      <c r="B301" t="n">
-        <v/>
-      </c>
-      <c r="C301" t="n">
-        <v/>
-      </c>
-      <c r="D301" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>АОСР № 100</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SY5/SX17-SX18 в количестве 18 шт.</t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v/>
-      </c>
-      <c r="D302" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v/>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY5-SX17-SX18. №РС-064</t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v/>
-      </c>
-      <c r="D303" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v/>
-      </c>
-      <c r="B304" t="n">
-        <v/>
-      </c>
-      <c r="C304" t="n">
-        <v/>
-      </c>
-      <c r="D304" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>АОСР № 101</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX18/SY9-SY10 в количестве 18 шт.</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v/>
-      </c>
-      <c r="D305" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v/>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX18-SY9-SY10. №РС-046</t>
-        </is>
-      </c>
-      <c r="C306" t="n">
-        <v/>
-      </c>
-      <c r="D306" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v/>
-      </c>
-      <c r="B307" t="n">
-        <v/>
-      </c>
-      <c r="C307" t="n">
-        <v/>
-      </c>
-      <c r="D307" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>АОСР № 102</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Кузовной цех. Срубка свай в осях SX17-SХ18/SY5-SY6 в количестве 13 шт.</t>
-        </is>
-      </c>
-      <c r="C308" t="n">
-        <v/>
-      </c>
-      <c r="D308" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v/>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX17-SY6. №РС-059</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
-        <v/>
-      </c>
-      <c r="D309" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v/>
-      </c>
-      <c r="B310" t="n">
-        <v/>
-      </c>
-      <c r="C310" t="n">
-        <v/>
-      </c>
-      <c r="D310" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>АОСР № 103</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Цех окраски кузовов. Армирование 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX6-1-SX8. </t>
-        </is>
-      </c>
-      <c r="C311" t="n">
-        <v/>
-      </c>
-      <c r="D311" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v/>
-      </c>
-      <c r="B312" t="n">
-        <v/>
-      </c>
-      <c r="C312" t="n">
-        <v/>
-      </c>
-      <c r="D312" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v/>
-      </c>
-      <c r="B313" t="n">
-        <v/>
-      </c>
-      <c r="C313" t="n">
-        <v/>
-      </c>
-      <c r="D313" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v/>
-      </c>
-      <c r="B314" t="n">
-        <v/>
-      </c>
-      <c r="C314" t="n">
-        <v/>
-      </c>
-      <c r="D314" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v/>
-      </c>
-      <c r="B315" t="n">
-        <v/>
-      </c>
-      <c r="C315" t="n">
-        <v/>
-      </c>
-      <c r="D315" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v/>
-      </c>
-      <c r="B316" t="n">
-        <v/>
-      </c>
-      <c r="C316" t="n">
-        <v/>
-      </c>
-      <c r="D316" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v/>
-      </c>
-      <c r="B317" t="n">
-        <v/>
-      </c>
-      <c r="C317" t="n">
-        <v/>
-      </c>
-      <c r="D317" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v/>
-      </c>
-      <c r="B318" t="n">
-        <v/>
-      </c>
-      <c r="C318" t="n">
-        <v/>
-      </c>
-      <c r="D318" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v/>
-      </c>
-      <c r="B319" t="n">
-        <v/>
-      </c>
-      <c r="C319" t="n">
-        <v/>
-      </c>
-      <c r="D319" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v/>
-      </c>
-      <c r="B320" t="n">
-        <v/>
-      </c>
-      <c r="C320" t="n">
-        <v/>
-      </c>
-      <c r="D320" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v/>
-      </c>
-      <c r="B321" t="n">
-        <v/>
-      </c>
-      <c r="C321" t="n">
-        <v/>
-      </c>
-      <c r="D321" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v/>
-      </c>
-      <c r="B322" t="n">
-        <v/>
-      </c>
-      <c r="C322" t="n">
-        <v/>
-      </c>
-      <c r="D322" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>АОСР № 104</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Цех окраски кузовов. Монтаж опалубки 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX6-1-SX8. </t>
-        </is>
-      </c>
-      <c r="C323" t="n">
-        <v/>
-      </c>
-      <c r="D323" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v/>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устроство опалубки первой ступени в осях SY17/SX6-1-SX8. №С2-002</t>
-        </is>
-      </c>
-      <c r="C324" t="n">
-        <v/>
-      </c>
-      <c r="D324" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v/>
-      </c>
-      <c r="B325" t="n">
-        <v/>
-      </c>
-      <c r="C325" t="n">
-        <v/>
-      </c>
-      <c r="D325" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>АОСР № 105</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Бетонирование 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX6-1-SX8.  Объём уложенного бетона - 30,78м3.</t>
-        </is>
-      </c>
-      <c r="C326" t="n">
-        <v/>
-      </c>
-      <c r="D326" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v/>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устройства фундаментов первой ступени в осях SY17/SX6-1-SX8. №С4-002</t>
-        </is>
-      </c>
-      <c r="C327" t="n">
-        <v/>
-      </c>
-      <c r="D327" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v/>
-      </c>
-      <c r="B328" t="n">
-        <v/>
-      </c>
-      <c r="C328" t="n">
-        <v/>
-      </c>
-      <c r="D328" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v/>
-      </c>
-      <c r="B329" t="n">
-        <v/>
-      </c>
-      <c r="C329" t="n">
-        <v/>
-      </c>
-      <c r="D329" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>АОСР № 106</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Армирование 1-й ступени фундаментов Фм1-5шт, Фм2-11шт в осях SY17/SX9-SX13.</t>
-        </is>
-      </c>
-      <c r="C330" t="n">
-        <v/>
-      </c>
-      <c r="D330" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v/>
-      </c>
-      <c r="B331" t="n">
-        <v/>
-      </c>
-      <c r="C331" t="n">
-        <v/>
-      </c>
-      <c r="D331" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v/>
-      </c>
-      <c r="B332" t="n">
-        <v/>
-      </c>
-      <c r="C332" t="n">
-        <v/>
-      </c>
-      <c r="D332" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v/>
-      </c>
-      <c r="B333" t="n">
-        <v/>
-      </c>
-      <c r="C333" t="n">
-        <v/>
-      </c>
-      <c r="D333" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v/>
-      </c>
-      <c r="B334" t="n">
-        <v/>
-      </c>
-      <c r="C334" t="n">
-        <v/>
-      </c>
-      <c r="D334" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v/>
-      </c>
-      <c r="B335" t="n">
-        <v/>
-      </c>
-      <c r="C335" t="n">
-        <v/>
-      </c>
-      <c r="D335" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v/>
-      </c>
-      <c r="B336" t="n">
-        <v/>
-      </c>
-      <c r="C336" t="n">
-        <v/>
-      </c>
-      <c r="D336" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v/>
-      </c>
-      <c r="B337" t="n">
-        <v/>
-      </c>
-      <c r="C337" t="n">
-        <v/>
-      </c>
-      <c r="D337" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v/>
-      </c>
-      <c r="B338" t="n">
-        <v/>
-      </c>
-      <c r="C338" t="n">
-        <v/>
-      </c>
-      <c r="D338" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v/>
-      </c>
-      <c r="B339" t="n">
-        <v/>
-      </c>
-      <c r="C339" t="n">
-        <v/>
-      </c>
-      <c r="D339" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v/>
-      </c>
-      <c r="B340" t="n">
-        <v/>
-      </c>
-      <c r="C340" t="n">
-        <v/>
-      </c>
-      <c r="D340" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v/>
-      </c>
-      <c r="B341" t="n">
-        <v/>
-      </c>
-      <c r="C341" t="n">
-        <v/>
-      </c>
-      <c r="D341" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>АОСР № 107</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Цех окраски кузовов. Монтаж опалубки 1-й ступени фундаментов Фм1-5шт, Фм2-11шт в осях SY17/SX9-SX13. </t>
-        </is>
-      </c>
-      <c r="C342" t="n">
-        <v/>
-      </c>
-      <c r="D342" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v/>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устроство опалубки первой ступени в осях SY17/SX9-SX13. №С2-001</t>
-        </is>
-      </c>
-      <c r="C343" t="n">
-        <v/>
-      </c>
-      <c r="D343" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v/>
-      </c>
-      <c r="B344" t="n">
-        <v/>
-      </c>
-      <c r="C344" t="n">
-        <v/>
-      </c>
-      <c r="D344" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>АОСР № 108</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Армирование 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX3-SX5.</t>
-        </is>
-      </c>
-      <c r="C345" t="n">
-        <v/>
-      </c>
-      <c r="D345" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v/>
-      </c>
-      <c r="B346" t="n">
-        <v/>
-      </c>
-      <c r="C346" t="n">
-        <v/>
-      </c>
-      <c r="D346" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v/>
-      </c>
-      <c r="B347" t="n">
-        <v/>
-      </c>
-      <c r="C347" t="n">
-        <v/>
-      </c>
-      <c r="D347" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v/>
-      </c>
-      <c r="B348" t="n">
-        <v/>
-      </c>
-      <c r="C348" t="n">
-        <v/>
-      </c>
-      <c r="D348" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v/>
-      </c>
-      <c r="B349" t="n">
-        <v/>
-      </c>
-      <c r="C349" t="n">
-        <v/>
-      </c>
-      <c r="D349" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v/>
-      </c>
-      <c r="B350" t="n">
-        <v/>
-      </c>
-      <c r="C350" t="n">
-        <v/>
-      </c>
-      <c r="D350" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v/>
-      </c>
-      <c r="B351" t="n">
-        <v/>
-      </c>
-      <c r="C351" t="n">
-        <v/>
-      </c>
-      <c r="D351" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v/>
-      </c>
-      <c r="B352" t="n">
-        <v/>
-      </c>
-      <c r="C352" t="n">
-        <v/>
-      </c>
-      <c r="D352" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v/>
-      </c>
-      <c r="B353" t="n">
-        <v/>
-      </c>
-      <c r="C353" t="n">
-        <v/>
-      </c>
-      <c r="D353" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v/>
-      </c>
-      <c r="B354" t="n">
-        <v/>
-      </c>
-      <c r="C354" t="n">
-        <v/>
-      </c>
-      <c r="D354" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v/>
-      </c>
-      <c r="B355" t="n">
-        <v/>
-      </c>
-      <c r="C355" t="n">
-        <v/>
-      </c>
-      <c r="D355" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v/>
-      </c>
-      <c r="B356" t="n">
-        <v/>
-      </c>
-      <c r="C356" t="n">
-        <v/>
-      </c>
-      <c r="D356" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>АОСР № 109</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Монтаж опалубки 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX3-SX5.</t>
-        </is>
-      </c>
-      <c r="C357" t="n">
-        <v/>
-      </c>
-      <c r="D357" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v/>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устроство опалубки первой ступени в осях SY17/SX3-SX5, SY17/SX5-SX6. №С2-003</t>
-        </is>
-      </c>
-      <c r="C358" t="n">
-        <v/>
-      </c>
-      <c r="D358" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v/>
-      </c>
-      <c r="B359" t="n">
-        <v/>
-      </c>
-      <c r="C359" t="n">
-        <v/>
-      </c>
-      <c r="D359" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>АОСР № 110</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>Цех окраски пластика. Бетонирование 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX3-SX5. Объём уложенного бетона - 17,28м3.</t>
-        </is>
-      </c>
-      <c r="C360" t="n">
-        <v/>
-      </c>
-      <c r="D360" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v/>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устройства фундаментов первой ступени в осях SY17/SX3-SX5, SY17/SX5-SX6. №С4-003</t>
-        </is>
-      </c>
-      <c r="C361" t="n">
-        <v/>
-      </c>
-      <c r="D361" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v/>
-      </c>
-      <c r="B362" t="n">
-        <v/>
-      </c>
-      <c r="C362" t="n">
-        <v/>
-      </c>
-      <c r="D362" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v/>
-      </c>
-      <c r="B363" t="n">
-        <v/>
-      </c>
-      <c r="C363" t="n">
-        <v/>
-      </c>
-      <c r="D363" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>АОСР № 111</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Армирование 1-й ступени фундаментов Фм1-4шт, Фм2-6шт в осях SY17/SX13-1-SX18.</t>
-        </is>
-      </c>
-      <c r="C364" t="n">
-        <v/>
-      </c>
-      <c r="D364" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v/>
-      </c>
-      <c r="B365" t="n">
-        <v/>
-      </c>
-      <c r="C365" t="n">
-        <v/>
-      </c>
-      <c r="D365" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v/>
-      </c>
-      <c r="B366" t="n">
-        <v/>
-      </c>
-      <c r="C366" t="n">
-        <v/>
-      </c>
-      <c r="D366" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v/>
-      </c>
-      <c r="B367" t="n">
-        <v/>
-      </c>
-      <c r="C367" t="n">
-        <v/>
-      </c>
-      <c r="D367" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v/>
-      </c>
-      <c r="B368" t="n">
-        <v/>
-      </c>
-      <c r="C368" t="n">
-        <v/>
-      </c>
-      <c r="D368" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v/>
-      </c>
-      <c r="B369" t="n">
-        <v/>
-      </c>
-      <c r="C369" t="n">
-        <v/>
-      </c>
-      <c r="D369" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v/>
-      </c>
-      <c r="B370" t="n">
-        <v/>
-      </c>
-      <c r="C370" t="n">
-        <v/>
-      </c>
-      <c r="D370" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v/>
-      </c>
-      <c r="B371" t="n">
-        <v/>
-      </c>
-      <c r="C371" t="n">
-        <v/>
-      </c>
-      <c r="D371" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v/>
-      </c>
-      <c r="B372" t="n">
-        <v/>
-      </c>
-      <c r="C372" t="n">
-        <v/>
-      </c>
-      <c r="D372" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v/>
-      </c>
-      <c r="B373" t="n">
-        <v/>
-      </c>
-      <c r="C373" t="n">
-        <v/>
-      </c>
-      <c r="D373" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v/>
-      </c>
-      <c r="B374" t="n">
-        <v/>
-      </c>
-      <c r="C374" t="n">
-        <v/>
-      </c>
-      <c r="D374" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v/>
-      </c>
-      <c r="B375" t="n">
-        <v/>
-      </c>
-      <c r="C375" t="n">
-        <v/>
-      </c>
-      <c r="D375" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>АОСР № 112</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Монтаж опалубки 1-й ступени фундаментов Фм1-4шт, Фм2-6шт в осях SY17/SX13-1-SX18.</t>
-        </is>
-      </c>
-      <c r="C376" t="n">
-        <v/>
-      </c>
-      <c r="D376" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v/>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устроство опалубки первой ступени в осях SX13-1-SX14/SX17, SX14-SX15/SX17, SX15-SX16/SY17, SX16-SX17/SY17, SX17-SX18/SY17. №С2-007</t>
-        </is>
-      </c>
-      <c r="C377" t="n">
-        <v/>
-      </c>
-      <c r="D377" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v/>
-      </c>
-      <c r="B378" t="n">
-        <v/>
-      </c>
-      <c r="C378" t="n">
-        <v/>
-      </c>
-      <c r="D378" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>АОСР № 113</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Бетонирование 1-й ступени фундаментов Фм1-4шт, Фм2-6шт в осях SY17/SX13-1-SX18. Объём уложенного бетона - 20,80м3.</t>
-        </is>
-      </c>
-      <c r="C379" t="n">
-        <v/>
-      </c>
-      <c r="D379" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v/>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Исполнительная схема устройства фундаментов первой ступени в осях SX13-1-SX14/SX17, SX14-SX15/SX17, SX15-SX16/SY17, SX16-SX17/SY17, SX17-SX18/SY17. №С4-007</t>
-        </is>
-      </c>
-      <c r="C380" t="n">
-        <v/>
-      </c>
-      <c r="D380" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v/>
-      </c>
-      <c r="B381" t="n">
-        <v/>
-      </c>
-      <c r="C381" t="n">
-        <v/>
-      </c>
-      <c r="D381" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v/>
-      </c>
-      <c r="B382" t="n">
-        <v/>
-      </c>
-      <c r="C382" t="n">
-        <v/>
-      </c>
-      <c r="D382" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>АОСР № 114</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY16-SY17/SX6-SX8 в количестве 41 шт.</t>
-        </is>
-      </c>
-      <c r="C383" t="n">
-        <v/>
-      </c>
-      <c r="D383" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v/>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX6-SX7. №РС-014</t>
-        </is>
-      </c>
-      <c r="C384" t="n">
-        <v/>
-      </c>
-      <c r="D384" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v/>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY16-SX6-1-SX8. №РС-014/1</t>
-        </is>
-      </c>
-      <c r="C385" t="n">
-        <v/>
-      </c>
-      <c r="D385" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v/>
-      </c>
-      <c r="B386" t="n">
-        <v/>
-      </c>
-      <c r="C386" t="n">
-        <v/>
-      </c>
-      <c r="D386" t="n">
         <v/>
       </c>
     </row>

--- a/docs/project.xlsx
+++ b/docs/project.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet name="ведомость_мтр" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="виды_и_объемы_работ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="журнал_аоср" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="информация" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="исп._схемы" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="общая_ведомость" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="вор" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="журнал_аоср" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="информация" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="исп._схемы" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="реестр_ид" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="согласования" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
@@ -1195,6 +1195,2107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19,04</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Засыпка щебнем (перекоп)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Засыпка щебнем (перекоп)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>м4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6,04</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Засыпка щебнем (перекоп)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Засыпка щебнем (перекоп)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Засыпка щебнем (перекоп)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Засыпка щебнем (перекоп)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Засыпка щебнем (перекоп)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ручная доработка грунта</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Засыпка щебнем (перекоп)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>29,06</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Устройство щебеночного основания</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Устройство щебеночного основания</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>6,99</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Устройство бетонного основания</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Устройство щебеночного основания</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Устройство щебеночного основания</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>10,87</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Бетонирование</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>30,78</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Бетонирование</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>15,07</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Бетонирование</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>17,28</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Бетонирование</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>м3</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>20,80</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Срубка свай</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1266,7 +3367,7 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
@@ -8466,7 +10567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8821,7 +10922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10149,13 +12250,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10166,2113 +12267,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Срубка свай</t>
+          <t>АОСР № 12</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>19,04</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>м4</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>6,04</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>29,06</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Устройство щебеночного основания</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Устройство щебеночного основания</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>3,89</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Устройство щебеночного основания</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Устройство щебеночного основания</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>10,87</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Бетонирование</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>30,78</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Бетонирование</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>15,07</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Бетонирование</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>17,28</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Бетонирование</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>20,80</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>АОСР № 11</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY12 - SY13/SX16 - SX18 в количестве 28 шт.</t>
+          <t>Цех окраски кузовов. Срубка свай в осях SY15 - SY16/ SX6 - SX6-1 в количестве 9 шт.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -12292,7 +12292,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Исполнительная схема по срубке свай в осях SY12-SY13-SX16-SX18. №РС-043</t>
+          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY15-SY16. №РС-027</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -12303,11 +12303,15 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v/>
-      </c>
-      <c r="B3" t="n">
-        <v/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АОСР № 13</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Цех окраски кузовов. Срубка свай в осях  SX6 - SX6-1/SY12 - SY13 в количестве 9 шт.</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v/>
@@ -12320,8 +12324,10 @@
       <c r="A4" t="n">
         <v/>
       </c>
-      <c r="B4" t="n">
-        <v/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY12-SY13. №РС-037</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v/>
@@ -12331,11 +12337,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v/>
-      </c>
-      <c r="B5" t="n">
-        <v/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>АОСР № 14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Цех окраски кузовов. Срубка свай в осях SX6 - SX 6-1/ SY13 - SY14 в количестве 9 шт.</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v/>
@@ -12348,8 +12358,10 @@
       <c r="A6" t="n">
         <v/>
       </c>
-      <c r="B6" t="n">
-        <v/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY1-SY14. №РС-035</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v/>
@@ -12359,11 +12371,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="n">
-        <v/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>АОСР № 15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Цех окраски кузовов. Срубка свай в осях SY17-SY16/SX7-SX8 в количестве 21 шт.</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v/>
@@ -12376,331 +12392,15 @@
       <c r="A8" t="n">
         <v/>
       </c>
-      <c r="B8" t="n">
-        <v/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX7-SX8. №РС-015</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v/>
       </c>
       <c r="D8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v/>
-      </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
-      <c r="D14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v/>
-      </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
-      </c>
-      <c r="D15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v/>
-      </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
-      <c r="C16" t="n">
-        <v/>
-      </c>
-      <c r="D16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v/>
-      </c>
-      <c r="B17" t="n">
-        <v/>
-      </c>
-      <c r="C17" t="n">
-        <v/>
-      </c>
-      <c r="D17" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>АОСР № 12</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY15 - SY16/ SX6 - SX6-1 в количестве 9 шт.</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v/>
-      </c>
-      <c r="D18" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v/>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY15-SY16. №РС-027</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v/>
-      </c>
-      <c r="D19" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v/>
-      </c>
-      <c r="B20" t="n">
-        <v/>
-      </c>
-      <c r="C20" t="n">
-        <v/>
-      </c>
-      <c r="D20" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>АОСР № 13</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях  SX6 - SX6-1/SY12 - SY13 в количестве 9 шт.</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v/>
-      </c>
-      <c r="D21" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v/>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY12-SY13. №РС-037</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v/>
-      </c>
-      <c r="D22" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v/>
-      </c>
-      <c r="B23" t="n">
-        <v/>
-      </c>
-      <c r="C23" t="n">
-        <v/>
-      </c>
-      <c r="D23" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>АОСР № 14</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SX6 - SX 6-1/ SY13 - SY14 в количестве 9 шт.</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v/>
-      </c>
-      <c r="D24" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v/>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY1-SY14. №РС-035</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v/>
-      </c>
-      <c r="D25" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v/>
-      </c>
-      <c r="B26" t="n">
-        <v/>
-      </c>
-      <c r="C26" t="n">
-        <v/>
-      </c>
-      <c r="D26" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>АОСР № 15</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Цех окраски кузовов. Срубка свай в осях SY17-SY16/SX7-SX8 в количестве 21 шт.</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v/>
-      </c>
-      <c r="D27" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v/>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX7-SX8. №РС-015</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v/>
-      </c>
-      <c r="D28" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v/>
-      </c>
-      <c r="B29" t="n">
-        <v/>
-      </c>
-      <c r="C29" t="n">
-        <v/>
-      </c>
-      <c r="D29" t="n">
         <v/>
       </c>
     </row>

--- a/docs/project.xlsx
+++ b/docs/project.xlsx
@@ -11,7 +11,7 @@
     <sheet name="виды_и_объемы_работ" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="вор" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="журнал_аоср" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="информация" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="информация_кз" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="исп._схемы" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="реестр_ид" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="согласования" sheetId="8" state="visible" r:id="rId8"/>
@@ -456,9 +456,7 @@
           <t>Сертификат соответствия №KZ/3910317.01.01.00647.</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v/>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,9 +469,7 @@
           <t>Сертификат соответствия №KZ/3910317.01.01.00647.</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v/>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -486,9 +482,7 @@
           <t>Сертификат соответствия №KZ/3910317.01.01.00647.</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v/>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -496,12 +490,8 @@
           <t>Пленка</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v/>
-      </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,9 +504,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии №7504/1 от 23.12.23г.</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v/>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -529,9 +517,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии №101 от 18.01.24г.</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -544,9 +530,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии №146 от 22.01.24г.</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v/>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -559,9 +543,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии №147 от 22.01.24г.</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -574,9 +556,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии №229 от 06.02.24г.</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -589,9 +569,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии №264/1 от 09.02.24г.</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -604,9 +582,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 27.02.24г.</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -619,9 +595,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 05.03.24г.</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -634,9 +608,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 11.03.24г.</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -649,9 +621,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 15.03.24г.</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v/>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -664,9 +634,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 18.03.24г.</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v/>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -679,9 +647,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 20.03.24г.</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v/>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -694,9 +660,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 26.03.24г.</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v/>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -709,9 +673,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 01.04.24г.</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v/>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -724,9 +686,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 03.04.24г.</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v/>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -739,9 +699,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 04.04.24г.</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v/>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -754,9 +712,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 05.04.24г.</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v/>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -769,9 +725,7 @@
           <t>Документ о качестве бетонной смеси заданного качества партии от 09.04.24г.</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v/>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -784,9 +738,7 @@
           <t>Документ о качестве №0135942</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v/>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -799,9 +751,7 @@
           <t>Документ о качестве №2306801</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v/>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -814,9 +764,7 @@
           <t xml:space="preserve">Документ о качестве №2316817 </t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v/>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -829,9 +777,7 @@
           <t>Документ о качестве №2337033</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v/>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -844,9 +790,7 @@
           <t>Сертификат качества №Г12-6030</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v/>
-      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -859,9 +803,7 @@
           <t>Сертификат качества №KZ 392-24</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v/>
-      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -874,9 +816,7 @@
           <t>Сертификат качества №KZ 348-23</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v/>
-      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -889,9 +829,7 @@
           <t>Сертификат качества №KZ 392-24</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v/>
-      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -904,9 +842,7 @@
           <t>Сертификат качества №KZ 446-24</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v/>
-      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -919,9 +855,7 @@
           <t>Сертификат качества №KZ 314-23</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v/>
-      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -934,9 +868,7 @@
           <t>Сертификат качества №KZ 358-23</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v/>
-      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -949,9 +881,7 @@
           <t>Сертификат качества №KZ 120-24</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v/>
-      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1195,7 +1125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,12 +1146,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1236,13 +1166,11 @@
           <t>шт</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="C2" t="n">
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1256,13 +1184,11 @@
           <t>шт</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="C3" t="n">
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1276,2013 +1202,11 @@
           <t>шт</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="C4" t="n">
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>19,04</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>м4</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>6,04</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Ручная доработка грунта</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Засыпка щебнем (перекоп)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>29,06</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Устройство щебеночного основания</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Устройство щебеночного основания</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>3,89</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Устройство бетонного основания</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4,3</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Устройство щебеночного основания</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Устройство щебеночного основания</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>10,87</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Бетонирование</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>30,78</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Бетонирование</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>15,07</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Бетонирование</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>17,28</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Бетонирование</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>м3</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>20,80</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Срубка свай</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -9780,9 +7704,7 @@
           <t xml:space="preserve">Цех окраски кузовов. Армирование 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX6-1-SX8. </t>
         </is>
       </c>
-      <c r="H93" t="n">
-        <v/>
-      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
           <t>Филиал АО «GAKYEONG Architects &amp; Engineers Inc. в г. Астана», №0000-1-КЖ, Лист №13, ,20, 21.</t>
@@ -9808,9 +7730,7 @@
           <t>Нет</t>
         </is>
       </c>
-      <c r="N93" t="n">
-        <v/>
-      </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -9846,9 +7766,7 @@
           <t xml:space="preserve">Цех окраски кузовов. Монтаж опалубки 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX6-1-SX8. </t>
         </is>
       </c>
-      <c r="H94" t="n">
-        <v/>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
           <t>Филиал АО «GAKYEONG Architects &amp; Engineers Inc. в г. Астана», №0000-1-КЖ, Лист №13, ,20, 21.</t>
@@ -9984,9 +7902,7 @@
           <t>Цех окраски кузовов. Армирование 1-й ступени фундаментов Фм1-5шт, Фм2-11шт в осях SY17/SX9-SX13.</t>
         </is>
       </c>
-      <c r="H96" t="n">
-        <v/>
-      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
           <t>Филиал АО «GAKYEONG Architects &amp; Engineers Inc. в г. Астана», №0000-1-КЖ, Лист №13, ,20, 21.</t>
@@ -10012,9 +7928,7 @@
           <t>Нет</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v/>
-      </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -10050,9 +7964,7 @@
           <t xml:space="preserve">Цех окраски кузовов. Монтаж опалубки 1-й ступени фундаментов Фм1-5шт, Фм2-11шт в осях SY17/SX9-SX13. </t>
         </is>
       </c>
-      <c r="H97" t="n">
-        <v/>
-      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
           <t>Филиал АО «GAKYEONG Architects &amp; Engineers Inc. в г. Астана», №0000-1-КЖ, Лист №13, ,20, 21.</t>
@@ -10118,9 +8030,7 @@
           <t>Цех окраски пластика. Армирование 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX3-SX5.</t>
         </is>
       </c>
-      <c r="H98" t="n">
-        <v/>
-      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
           <t>Филиал АО «GAKYEONG Architects &amp; Engineers Inc. в г. Астана», №0000-1-КЖ, Лист №12, ,20, 21.</t>
@@ -10146,9 +8056,7 @@
           <t>Нет</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v/>
-      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -10184,9 +8092,7 @@
           <t>Цех окраски пластика. Монтаж опалубки 1-й ступени фундаментов Фм1-2шт, Фм2-6шт в осях SY17/SX3-SX5.</t>
         </is>
       </c>
-      <c r="H99" t="n">
-        <v/>
-      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
           <t>Филиал АО «GAKYEONG Architects &amp; Engineers Inc. в г. Астана», №0000-1-КЖ, Лист №12, ,20, 21.</t>
@@ -10322,9 +8228,7 @@
           <t>Цех окраски кузовов. Армирование 1-й ступени фундаментов Фм1-4шт, Фм2-6шт в осях SY17/SX13-1-SX18.</t>
         </is>
       </c>
-      <c r="H101" t="n">
-        <v/>
-      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
           <t>Филиал АО «GAKYEONG Architects &amp; Engineers Inc. в г. Астана», №0000-1-КЖ, Лист №14, ,20, 21.</t>
@@ -10350,9 +8254,7 @@
           <t>Нет</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v/>
-      </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -10388,9 +8290,7 @@
           <t>Цех окраски кузовов. Монтаж опалубки 1-й ступени фундаментов Фм1-4шт, Фм2-6шт в осях SY17/SX13-1-SX18.</t>
         </is>
       </c>
-      <c r="H102" t="n">
-        <v/>
-      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
           <t>Филиал АО «GAKYEONG Architects &amp; Engineers Inc. в г. Астана», №0000-1-КЖ, Лист №14, ,20, 21.</t>
@@ -10599,9 +8499,7 @@
           <t>«Строительство завода по производству автомобилей «KIA» на индустриальной зоне в г.Костанай» Костанайская область, город Костанай, проспект Н. Назарбаева, земельный участок кадастровый номер 12-193-042-646.  Здание завода.</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v/>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10609,9 +8507,7 @@
           <t>Мы, нижеподписавшиеся</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v/>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10619,9 +8515,7 @@
           <t>представителя подрядчика (генподрядчика):</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v/>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10629,9 +8523,7 @@
           <t>Небесюк Д.Д.</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v/>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10639,9 +8531,7 @@
           <t xml:space="preserve"> (фамилия, имя, отчество (при его наличии), организация, должность)</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v/>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10649,9 +8539,7 @@
           <t>представителя технического надзора Заказчика:</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v/>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10659,9 +8547,7 @@
           <t>Эксперт технического надзора ТОО «Advanced Controls &amp; Project Management» Акбисенов Ж.Ж</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v/>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10669,9 +8555,7 @@
           <t xml:space="preserve"> (фамилия, имя, отчество (при его наличии), организация, должность)</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10679,9 +8563,7 @@
           <t>представителя проектной организации (в случаях осуществления авторского надзора проектной организацией):</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10689,9 +8571,7 @@
           <t>Эксперт авторского надзора Филиал АО «GAKYEONG Architects &amp; Engineers Inc. в г. Астана» Айдаров М.А.</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10699,9 +8579,7 @@
           <t xml:space="preserve"> (фамилия, имя, отчество (при его наличии), организация, должность)</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10709,17 +8587,11 @@
           <t>а также представителей, дополнительно участвующих в освидетельствовании:</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10727,9 +8599,7 @@
           <t>ТОО «ЦентрПромСтрой»  Мастер ДСУ - Тюгаев Ю.П.</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10737,9 +8607,7 @@
           <t xml:space="preserve"> (фамилия, имя, отчество (при его наличии), организация, должность)</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10747,9 +8615,7 @@
           <t>произвела осмотр работ, выполненных: ТОО «ЦентрПромСтрой»</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v/>
-      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10757,33 +8623,19 @@
           <t>(наименование подрядчика (генподрядчика))</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v/>
-      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v/>
-      </c>
-      <c r="B19" t="n">
-        <v/>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v/>
-      </c>
-      <c r="B20" t="n">
-        <v/>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v/>
-      </c>
-      <c r="B21" t="n">
-        <v/>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10791,9 +8643,7 @@
           <t>Представитель</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v/>
-      </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10813,17 +8663,11 @@
           <t>(подпись, расшифровка подписи)</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v/>
-      </c>
+      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v/>
-      </c>
-      <c r="B25" t="n">
-        <v/>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10831,9 +8675,7 @@
           <t>Представитель</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v/>
-      </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10853,17 +8695,11 @@
           <t>(подпись, расшифровка подписи)</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v/>
-      </c>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v/>
-      </c>
-      <c r="B29" t="n">
-        <v/>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10883,17 +8719,11 @@
           <t>(подпись, расшифровка подписи)</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v/>
-      </c>
+      <c r="B31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v/>
-      </c>
-      <c r="B32" t="n">
-        <v/>
-      </c>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10913,9 +8743,7 @@
           <t>(подпись, расшифровка подписи)</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v/>
-      </c>
+      <c r="B34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12287,20 +10115,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v/>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY15-SY16. №РС-027</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v/>
-      </c>
-      <c r="D2" t="n">
-        <v/>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12313,28 +10135,18 @@
           <t>Цех окраски кузовов. Срубка свай в осях  SX6 - SX6-1/SY12 - SY13 в количестве 9 шт.</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v/>
-      </c>
-      <c r="D3" t="n">
-        <v/>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v/>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY12-SY13. №РС-037</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v/>
-      </c>
-      <c r="D4" t="n">
-        <v/>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12347,28 +10159,18 @@
           <t>Цех окраски кузовов. Срубка свай в осях SX6 - SX 6-1/ SY13 - SY14 в количестве 9 шт.</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v/>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Исполнительная схема по срубке свай в осях SX6-SX6-1-SY1-SY14. №РС-035</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v/>
-      </c>
-      <c r="D6" t="n">
-        <v/>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12381,28 +10183,18 @@
           <t>Цех окраски кузовов. Срубка свай в осях SY17-SY16/SX7-SX8 в количестве 21 шт.</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v/>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Исполнительная схема по срубке свай в осях SY17-SY16-SX7-SX8. №РС-015</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v/>
-      </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
